--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/IELET2118---Prosjekt-Lastflytanalyse/prosjektfiler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504A47C-410E-5C47-AF5A-83A3AEE03655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B778BC0-3601-4E5A-B117-2AE60BB259A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="500" windowWidth="31800" windowHeight="23340" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -277,15 +277,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -344,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -450,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,183 +732,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1.0177777777777701E-2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.109411111111111</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>5.6330955393722399E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>8.3555555555555501E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8.9822222222222206E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4.6245500497903201E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.1244444444444399E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.22837777777777701</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.1758164488296601E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4.0333333333333297E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4.4366666666666603E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3.8659496717279901E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.5822222222222199E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.25315555555555502</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2.2949711325591801E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.20888888888888E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.193422222222222</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1.7534610900452201E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2.1955555555555499E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.23602222222222199</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1.21517432159383E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4.7022222222222201E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.50548888888888799</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2.6025393365309301E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>5.1866666666666603E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.55756666666666599</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2.8706648447368598E-2</v>
       </c>
     </row>
@@ -793,268 +923,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <f>L2*1.02</f>
         <v>306000</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
         <v>1000</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>L2*1.033</f>
         <v>309900</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>300</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>L2*1.029</f>
         <v>308700</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>330</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>L2*0.985</f>
         <v>295500</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>180</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>300000</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>300000</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1050</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>300000</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>180</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>300000</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>225</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K12" s="2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B778BC0-3601-4E5A-B117-2AE60BB259A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AB490-D03E-4E6F-8A51-B95DA74D1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
@@ -402,20 +402,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +773,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,172 +783,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1.0177777777777701E-2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>0.109411111111111</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>5.6330955393722399E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>8.3555555555555501E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>8.9822222222222206E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>4.6245500497903201E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>2.1244444444444399E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>0.22837777777777701</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>1.1758164488296601E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>4.0333333333333297E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>4.4366666666666603E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>3.8659496717279901E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>1.5822222222222199E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>0.25315555555555502</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>2.2949711325591801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>1.20888888888888E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>0.193422222222222</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>1.7534610900452201E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>2.1955555555555499E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>0.23602222222222199</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>1.21517432159383E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>4.7022222222222201E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>0.50548888888888799</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>2.6025393365309301E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>5.1866666666666603E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>0.55756666666666599</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>2.8706648447368598E-2</v>
       </c>
     </row>
@@ -924,7 +964,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,30 +974,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
@@ -966,222 +1008,252 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
         <f>L2*1.02</f>
         <v>306000</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="15">
         <v>1000</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="16">
         <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="17">
         <f>L2*1.033</f>
         <v>309900</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
         <v>300</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="17">
         <f>L2*1.029</f>
         <v>308700</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>330</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="17">
         <f>L2*0.985</f>
         <v>295500</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
         <v>180</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="17">
         <v>300000</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
         <v>100</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="17">
         <v>60</v>
       </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="17">
         <v>300000</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <v>1050</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="17">
         <v>225</v>
       </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="17">
         <v>300000</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
         <v>180</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="17">
         <v>45</v>
       </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="17">
         <v>300000</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>225</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="17">
         <v>45</v>
       </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" s="1"/>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AB490-D03E-4E6F-8A51-B95DA74D1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68324DE7-C196-4A94-81AB-D66384A65952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
@@ -770,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,122 +817,122 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>8.3555555555555501E-3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8.9822222222222206E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.6245500497903201E-3</v>
+      <c r="C3" s="5">
+        <v>1.0177777777777701E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.109411111111111</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.6330955393722399E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
       <c r="C4" s="6">
-        <v>2.1244444444444399E-2</v>
+        <v>8.3555555555555501E-3</v>
       </c>
       <c r="D4" s="6">
-        <v>0.22837777777777701</v>
+        <v>8.9822222222222206E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>1.1758164488296601E-2</v>
+        <v>4.6245500497903201E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>5</v>
-      </c>
       <c r="C5" s="6">
-        <v>4.0333333333333297E-3</v>
+        <v>2.1244444444444399E-2</v>
       </c>
       <c r="D5" s="6">
-        <v>4.4366666666666603E-2</v>
+        <v>0.22837777777777701</v>
       </c>
       <c r="E5" s="6">
-        <v>3.8659496717279901E-3</v>
+        <v>1.1758164488296601E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>6</v>
-      </c>
       <c r="C6" s="6">
-        <v>1.5822222222222199E-2</v>
+        <v>4.0333333333333297E-3</v>
       </c>
       <c r="D6" s="6">
-        <v>0.25315555555555502</v>
+        <v>4.4366666666666603E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>2.2949711325591801E-2</v>
+        <v>3.8659496717279901E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>7</v>
-      </c>
       <c r="C7" s="6">
-        <v>1.20888888888888E-2</v>
+        <v>1.5822222222222199E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>0.193422222222222</v>
+        <v>0.25315555555555502</v>
       </c>
       <c r="E7" s="6">
-        <v>1.7534610900452201E-2</v>
+        <v>2.2949711325591801E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>8</v>
-      </c>
       <c r="C8" s="6">
-        <v>2.1955555555555499E-2</v>
+        <v>1.20888888888888E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>0.23602222222222199</v>
+        <v>0.193422222222222</v>
       </c>
       <c r="E8" s="6">
-        <v>1.21517432159383E-2</v>
+        <v>1.7534610900452201E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>4.7022222222222201E-2</v>
+        <v>2.1955555555555499E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>0.50548888888888799</v>
+        <v>0.23602222222222199</v>
       </c>
       <c r="E9" s="6">
-        <v>2.6025393365309301E-2</v>
+        <v>1.21517432159383E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,15 +940,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4.7022222222222201E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.50548888888888799</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.6025393365309301E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>5.1866666666666603E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>0.55756666666666599</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>2.8706648447368598E-2</v>
       </c>
     </row>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68324DE7-C196-4A94-81AB-D66384A65952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD4CF7-2BC2-4C44-A23B-8181778DFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,8 +1067,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="17">
-        <f>L2*1.033</f>
-        <v>309900</v>
+        <f>L2*1.033*0.95</f>
+        <v>294405</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD4CF7-2BC2-4C44-A23B-8181778DFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4550255-BE90-44D1-9053-2DD75B552893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -770,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,87 +852,87 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>2.1244444444444399E-2</v>
+        <v>4.0333333333333297E-3</v>
       </c>
       <c r="D5" s="6">
-        <v>0.22837777777777701</v>
+        <v>4.4366666666666603E-2</v>
       </c>
       <c r="E5" s="6">
-        <v>1.1758164488296601E-2</v>
+        <v>3.8659496717279901E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>4.0333333333333297E-3</v>
+        <v>1.5822222222222199E-2</v>
       </c>
       <c r="D6" s="6">
-        <v>4.4366666666666603E-2</v>
+        <v>0.25315555555555502</v>
       </c>
       <c r="E6" s="6">
-        <v>3.8659496717279901E-3</v>
+        <v>2.2949711325591801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>1.5822222222222199E-2</v>
+        <v>1.20888888888888E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>0.25315555555555502</v>
+        <v>0.193422222222222</v>
       </c>
       <c r="E7" s="6">
-        <v>2.2949711325591801E-2</v>
+        <v>1.7534610900452201E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
-        <v>1.20888888888888E-2</v>
+        <v>2.1955555555555499E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>0.193422222222222</v>
+        <v>0.23602222222222199</v>
       </c>
       <c r="E8" s="6">
-        <v>1.7534610900452201E-2</v>
+        <v>1.21517432159383E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>2.1955555555555499E-2</v>
+        <v>4.7022222222222201E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>0.23602222222222199</v>
+        <v>0.50548888888888799</v>
       </c>
       <c r="E9" s="6">
-        <v>1.21517432159383E-2</v>
+        <v>2.6025393365309301E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,32 +940,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6">
-        <v>4.7022222222222201E-2</v>
+        <v>5.1866666666666603E-2</v>
       </c>
       <c r="D10" s="6">
-        <v>0.50548888888888799</v>
+        <v>0.55756666666666599</v>
       </c>
       <c r="E10" s="6">
-        <v>2.6025393365309301E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.1866666666666603E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.55756666666666599</v>
-      </c>
-      <c r="E11" s="6">
         <v>2.8706648447368598E-2</v>
       </c>
     </row>
@@ -980,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4550255-BE90-44D1-9053-2DD75B552893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76423559-61EF-47D8-9FAD-2B1AC35D92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,8 @@
         <v>180</v>
       </c>
       <c r="H8" s="17">
-        <v>45</v>
+        <f>45*1.05</f>
+        <v>47.25</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76423559-61EF-47D8-9FAD-2B1AC35D92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4550255-BE90-44D1-9053-2DD75B552893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C983FE4D-AF19-4D14-8B95-201C762457E9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1218,7 @@
         <v>180</v>
       </c>
       <c r="H8" s="17">
-        <f>45*1.05</f>
-        <v>47.25</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>

--- a/prosjektfiler/System_data.xlsx
+++ b/prosjektfiler/System_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\prosjektfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AB490-D03E-4E6F-8A51-B95DA74D1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446A9630-C7B6-4444-90ED-A2FB9B97EB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D3FD58-6DB6-4988-B229-9B990EF92238}"/>
   </bookViews>
   <sheets>
     <sheet name="BranchData" sheetId="1" r:id="rId1"/>
@@ -770,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81158F8-AC87-45D5-9D87-5F767982CA33}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,87 +835,87 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6">
-        <v>2.1244444444444399E-2</v>
+        <v>4.0333333333333297E-3</v>
       </c>
       <c r="D4" s="6">
-        <v>0.22837777777777701</v>
+        <v>4.4366666666666603E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>1.1758164488296601E-2</v>
+        <v>3.8659496717279901E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>4.0333333333333297E-3</v>
+        <v>1.5822222222222199E-2</v>
       </c>
       <c r="D5" s="6">
-        <v>4.4366666666666603E-2</v>
+        <v>0.25315555555555502</v>
       </c>
       <c r="E5" s="6">
-        <v>3.8659496717279901E-3</v>
+        <v>2.2949711325591801E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>1.5822222222222199E-2</v>
+        <v>1.20888888888888E-2</v>
       </c>
       <c r="D6" s="6">
-        <v>0.25315555555555502</v>
+        <v>0.193422222222222</v>
       </c>
       <c r="E6" s="6">
-        <v>2.2949711325591801E-2</v>
+        <v>1.7534610900452201E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6">
-        <v>1.20888888888888E-2</v>
+        <v>2.1955555555555499E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>0.193422222222222</v>
+        <v>0.23602222222222199</v>
       </c>
       <c r="E7" s="6">
-        <v>1.7534610900452201E-2</v>
+        <v>1.21517432159383E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="6">
         <v>8</v>
       </c>
       <c r="C8" s="6">
-        <v>2.1955555555555499E-2</v>
+        <v>4.7022222222222201E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>0.23602222222222199</v>
+        <v>0.50548888888888799</v>
       </c>
       <c r="E8" s="6">
-        <v>1.21517432159383E-2</v>
+        <v>2.6025393365309301E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,32 +923,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
-        <v>4.7022222222222201E-2</v>
+        <v>5.1866666666666603E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>0.50548888888888799</v>
+        <v>0.55756666666666599</v>
       </c>
       <c r="E9" s="6">
-        <v>2.6025393365309301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5.1866666666666603E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.55756666666666599</v>
-      </c>
-      <c r="E10" s="6">
         <v>2.8706648447368598E-2</v>
       </c>
     </row>
@@ -964,12 +947,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
